--- a/Materials/item_selection_rationale.xlsx
+++ b/Materials/item_selection_rationale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/3 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F8C86-FDB4-0C44-B14D-5A274E1CBBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61333E3-A3DE-A442-8946-5F7ECF89FE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="2" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
+    <workbookView xWindow="4400" yWindow="760" windowWidth="30160" windowHeight="21580" activeTab="3" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Version (18 items)" sheetId="1" r:id="rId1"/>
@@ -113,60 +113,6 @@
     <t>Interactions with other players and/or characters in [X] felt toxic to me.</t>
   </si>
   <si>
-    <t>bang_01</t>
-  </si>
-  <si>
-    <t>bang_02</t>
-  </si>
-  <si>
-    <t>bang_03</t>
-  </si>
-  <si>
-    <t>bang_04</t>
-  </si>
-  <si>
-    <t>bang_05</t>
-  </si>
-  <si>
-    <t>bang_06</t>
-  </si>
-  <si>
-    <t>bang_07</t>
-  </si>
-  <si>
-    <t>bang_08</t>
-  </si>
-  <si>
-    <t>bang_09</t>
-  </si>
-  <si>
-    <t>bang_10</t>
-  </si>
-  <si>
-    <t>bang_11</t>
-  </si>
-  <si>
-    <t>bang_12</t>
-  </si>
-  <si>
-    <t>bang_13</t>
-  </si>
-  <si>
-    <t>bang_14</t>
-  </si>
-  <si>
-    <t>bang_15</t>
-  </si>
-  <si>
-    <t>bang_16</t>
-  </si>
-  <si>
-    <t>bang_17</t>
-  </si>
-  <si>
-    <t>bang_18</t>
-  </si>
-  <si>
     <t>I could make choices regarding how to play the game.</t>
   </si>
   <si>
@@ -1579,6 +1525,60 @@
   </si>
   <si>
     <t>attempts to capture the wider gaming context, recognizing that players do not just engage with a game during the act of play, but may also be involved in watching video content, posting on forums, and so on - all of which can produce experiences of relatedness frustration</t>
+  </si>
+  <si>
+    <t>bangs_01</t>
+  </si>
+  <si>
+    <t>bangs_02</t>
+  </si>
+  <si>
+    <t>bangs_03</t>
+  </si>
+  <si>
+    <t>bangs_04</t>
+  </si>
+  <si>
+    <t>bangs_05</t>
+  </si>
+  <si>
+    <t>bangs_06</t>
+  </si>
+  <si>
+    <t>bangs_07</t>
+  </si>
+  <si>
+    <t>bangs_08</t>
+  </si>
+  <si>
+    <t>bangs_09</t>
+  </si>
+  <si>
+    <t>bangs_10</t>
+  </si>
+  <si>
+    <t>bangs_11</t>
+  </si>
+  <si>
+    <t>bangs_12</t>
+  </si>
+  <si>
+    <t>bangs_13</t>
+  </si>
+  <si>
+    <t>bangs_14</t>
+  </si>
+  <si>
+    <t>bangs_15</t>
+  </si>
+  <si>
+    <t>bangs_16</t>
+  </si>
+  <si>
+    <t>bangs_17</t>
+  </si>
+  <si>
+    <t>bangs_18</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2117,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -2126,7 +2126,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2135,7 +2135,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2146,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>497</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2155,7 +2155,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>498</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2175,7 +2175,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2184,7 +2184,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>501</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2193,7 +2193,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>503</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -2213,7 +2213,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2222,7 +2222,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2233,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>506</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -2242,7 +2242,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>507</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -2251,7 +2251,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>508</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -2262,7 +2262,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>509</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -2271,7 +2271,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>510</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2280,7 +2280,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2365,205 +2365,205 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -2580,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0ED73F-75D4-DF49-BBD5-A30AA3471256}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="68" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2593,123 +2593,123 @@
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>474</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -2717,355 +2717,355 @@
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="18"/>
@@ -3084,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D75590-E797-FF4C-BF7A-E0935229BE43}">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
@@ -3105,37 +3105,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3146,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3165,10 +3165,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -3184,20 +3184,20 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -3207,31 +3207,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3240,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3259,20 +3259,20 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -3282,10 +3282,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3301,21 +3301,21 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3324,16 +3324,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -3345,26 +3345,26 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K11" s="9"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3393,28 +3393,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K13" s="9"/>
     </row>
@@ -3424,20 +3424,20 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K14" s="9"/>
     </row>
@@ -3447,24 +3447,24 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K15" s="9"/>
     </row>
@@ -3474,10 +3474,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3493,10 +3493,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3512,21 +3512,21 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3535,10 +3535,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3554,21 +3554,21 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -3579,26 +3579,26 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="K21" s="9"/>
     </row>
@@ -3608,27 +3608,27 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3637,10 +3637,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3656,27 +3656,27 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3685,28 +3685,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K25" s="9"/>
     </row>
@@ -3718,10 +3718,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3737,10 +3737,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3756,10 +3756,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3775,10 +3775,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3794,10 +3794,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3813,24 +3813,24 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K31" s="9"/>
     </row>
@@ -3840,23 +3840,23 @@
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3867,10 +3867,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3886,10 +3886,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3905,10 +3905,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3924,10 +3924,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3943,21 +3943,21 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="9" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3968,19 +3968,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3991,28 +3991,28 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="K39" s="9"/>
     </row>
@@ -4022,20 +4022,20 @@
         <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="K40" s="9"/>
     </row>
@@ -4045,10 +4045,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -4064,31 +4064,31 @@
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4097,10 +4097,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -4116,10 +4116,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -4135,10 +4135,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -4154,19 +4154,19 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -4177,20 +4177,20 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -4200,27 +4200,27 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4229,27 +4229,27 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4260,21 +4260,21 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4283,21 +4283,21 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="9" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4308,21 +4308,21 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4331,10 +4331,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4350,10 +4350,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -4369,10 +4369,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -4388,10 +4388,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4407,24 +4407,24 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -4434,10 +4434,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -4453,10 +4453,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -4472,10 +4472,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4491,10 +4491,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -4510,10 +4510,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -4529,23 +4529,23 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4556,23 +4556,23 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4583,27 +4583,27 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4612,21 +4612,21 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4635,10 +4635,10 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4654,27 +4654,27 @@
         <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4683,23 +4683,23 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4710,23 +4710,23 @@
         <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4737,24 +4737,24 @@
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -4764,10 +4764,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -4783,10 +4783,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4804,10 +4804,10 @@
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4823,10 +4823,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4842,21 +4842,21 @@
         <v>75</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="9" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4867,10 +4867,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4886,10 +4886,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -4905,21 +4905,21 @@
         <v>78</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4928,22 +4928,22 @@
         <v>79</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -4953,21 +4953,21 @@
         <v>80</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="9" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -4978,10 +4978,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -4997,31 +4997,31 @@
         <v>82</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -5030,10 +5030,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -5049,10 +5049,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -5068,10 +5068,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -5087,10 +5087,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -5106,20 +5106,20 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -5129,28 +5129,28 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -5160,20 +5160,20 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -5183,10 +5183,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -5202,23 +5202,23 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -5227,10 +5227,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -5246,10 +5246,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -5265,27 +5265,27 @@
         <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5294,27 +5294,27 @@
         <v>95</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5323,21 +5323,21 @@
         <v>96</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5348,20 +5348,20 @@
         <v>97</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -5371,21 +5371,21 @@
         <v>98</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="9" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -5396,10 +5396,10 @@
         <v>99</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5415,10 +5415,10 @@
         <v>100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5434,10 +5434,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5453,10 +5453,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5472,20 +5472,20 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -5495,10 +5495,10 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5514,10 +5514,10 @@
         <v>105</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5533,19 +5533,19 @@
         <v>106</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -5556,19 +5556,19 @@
         <v>107</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="9" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -5579,10 +5579,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5598,27 +5598,27 @@
         <v>109</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5627,31 +5627,31 @@
         <v>110</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5660,27 +5660,27 @@
         <v>111</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -5689,10 +5689,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5708,27 +5708,27 @@
         <v>113</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5737,31 +5737,31 @@
         <v>114</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -5770,27 +5770,27 @@
         <v>115</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5799,27 +5799,27 @@
         <v>116</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -5828,27 +5828,27 @@
         <v>117</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -5857,10 +5857,10 @@
         <v>118</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5876,10 +5876,10 @@
         <v>119</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5895,10 +5895,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5916,21 +5916,21 @@
         <v>121</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -5939,10 +5939,10 @@
         <v>122</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5958,10 +5958,10 @@
         <v>123</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5977,10 +5977,10 @@
         <v>124</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5996,10 +5996,10 @@
         <v>125</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -6015,20 +6015,20 @@
         <v>126</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H127" s="5"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -6038,10 +6038,10 @@
         <v>127</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -6057,27 +6057,27 @@
         <v>128</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6086,27 +6086,27 @@
         <v>129</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6115,28 +6115,28 @@
         <v>130</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="K131" s="9"/>
     </row>
@@ -6146,27 +6146,27 @@
         <v>131</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6175,21 +6175,21 @@
         <v>132</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="9" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
@@ -6200,21 +6200,21 @@
         <v>133</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="9" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -6225,21 +6225,21 @@
         <v>134</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6248,23 +6248,23 @@
         <v>135</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6273,21 +6273,21 @@
         <v>136</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="9" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -6298,10 +6298,10 @@
         <v>137</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -6317,26 +6317,26 @@
         <v>138</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="9" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="K139" s="9"/>
     </row>
@@ -6346,21 +6346,21 @@
         <v>139</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -6369,10 +6369,10 @@
         <v>140</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -6388,10 +6388,10 @@
         <v>141</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -6407,10 +6407,10 @@
         <v>142</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -6426,10 +6426,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -6445,10 +6445,10 @@
         <v>144</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
